--- a/models/ngspice/testing/180MCU_SPICE_DATA/Diode/diode_pw2dw_cv.nl_out.xlsx
+++ b/models/ngspice/testing/180MCU_SPICE_DATA/Diode/diode_pw2dw_cv.nl_out.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="15">
   <si>
-    <t xml:space="preserve">W (um)</t>
+    <t xml:space="preserve">Area</t>
   </si>
   <si>
-    <t xml:space="preserve">L (um)</t>
+    <t xml:space="preserve">Pj</t>
   </si>
   <si>
     <t xml:space="preserve">corners</t>
@@ -113,13 +113,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -268,7 +268,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart145.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -296,7 +296,7 @@
               </a:rPr>
               <a:t>dnwpw - Cj (fF)
 /
-/area=1.000E-10/perim=4.000E-05/T=25/</a:t>
+/area=1.000E-10/perim=4.000E-05/T=-40/</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -304,7 +304,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -345,7 +345,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -366,6 +366,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -536,157 +541,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>53.98760092</c:v>
+                  <c:v>49.75856417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.45592821</c:v>
+                  <c:v>46.11797534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.12173428</c:v>
+                  <c:v>43.33584345</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.52261586</c:v>
+                  <c:v>41.11147147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.41541552</c:v>
+                  <c:v>39.2750813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.65770502</c:v>
+                  <c:v>37.72221006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.15947996</c:v>
+                  <c:v>36.38440765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.86055308</c:v>
+                  <c:v>35.21460586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.71886888</c:v>
+                  <c:v>34.17917906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.70399007</c:v>
+                  <c:v>33.25334779</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.79324442</c:v>
+                  <c:v>32.41837535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.96933292</c:v>
+                  <c:v>31.65978343</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.21878469</c:v>
+                  <c:v>30.96617477</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.53092462</c:v>
+                  <c:v>30.32843237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.89716361</c:v>
+                  <c:v>29.73916035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.31049829</c:v>
+                  <c:v>29.19228446</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.76515058</c:v>
+                  <c:v>28.68276084</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.2563031</c:v>
+                  <c:v>28.20636002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.77990151</c:v>
+                  <c:v>27.75950395</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.33250461</c:v>
+                  <c:v>27.33914145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.91116915</c:v>
+                  <c:v>26.94265169</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.51336008</c:v>
+                  <c:v>26.56776856</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.13687999</c:v>
+                  <c:v>26.21252072</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.7798129</c:v>
+                  <c:v>25.87518371</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.44047922</c:v>
+                  <c:v>25.55424119</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.11739918</c:v>
+                  <c:v>25.2483535</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.80926303</c:v>
+                  <c:v>24.95633181</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25.51490653</c:v>
+                  <c:v>24.6771168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25.23329059</c:v>
+                  <c:v>24.40976087</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.96348439</c:v>
+                  <c:v>24.15341335</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.70465114</c:v>
+                  <c:v>23.90730801</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24.4560361</c:v>
+                  <c:v>23.67075244</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.21695647</c:v>
+                  <c:v>23.44311914</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.98679269</c:v>
+                  <c:v>23.22383776</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.76498104</c:v>
+                  <c:v>23.01238859</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.55100732</c:v>
+                  <c:v>22.80829682</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>23.34440128</c:v>
+                  <c:v>22.61112765</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.14473192</c:v>
+                  <c:v>22.42048203</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22.95160331</c:v>
+                  <c:v>22.2359929</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>22.76465098</c:v>
+                  <c:v>22.05732198</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>22.58353874</c:v>
+                  <c:v>21.88415689</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>22.40795591</c:v>
+                  <c:v>21.71620859</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22.23761484</c:v>
+                  <c:v>21.55320926</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>22.07224878</c:v>
+                  <c:v>21.39491022</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21.9116099</c:v>
+                  <c:v>21.24108025</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21.75546762</c:v>
+                  <c:v>21.09150403</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21.60360707</c:v>
+                  <c:v>20.9459807</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.45582773</c:v>
+                  <c:v>20.80432268</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.3119422</c:v>
+                  <c:v>20.66635454</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21.17177513</c:v>
+                  <c:v>20.53191196</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>21.0351622</c:v>
+                  <c:v>20.40084088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,7 +729,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -745,6 +750,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -915,157 +925,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>48.58884083</c:v>
+                  <c:v>44.78270775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.51033539</c:v>
+                  <c:v>41.50617781</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.50956085</c:v>
+                  <c:v>39.00225911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.17035428</c:v>
+                  <c:v>37.00032433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.27387396</c:v>
+                  <c:v>35.34757317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.69193452</c:v>
+                  <c:v>33.94998905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.34353196</c:v>
+                  <c:v>32.74596689</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.17449777</c:v>
+                  <c:v>31.69314527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.14698199</c:v>
+                  <c:v>30.76126115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.23359107</c:v>
+                  <c:v>29.92801301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.41391998</c:v>
+                  <c:v>29.17653782</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.67239963</c:v>
+                  <c:v>28.49380509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.99690622</c:v>
+                  <c:v>27.86955729</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.37783215</c:v>
+                  <c:v>27.29558913</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.80744725</c:v>
+                  <c:v>26.76524432</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.27944846</c:v>
+                  <c:v>26.27305601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.78863552</c:v>
+                  <c:v>25.81448476</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.33067279</c:v>
+                  <c:v>25.38572402</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.90191135</c:v>
+                  <c:v>24.98355356</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.49925415</c:v>
+                  <c:v>24.60522731</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.12005224</c:v>
+                  <c:v>24.24838652</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.76202407</c:v>
+                  <c:v>23.9109917</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.42319199</c:v>
+                  <c:v>23.59126865</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.10183161</c:v>
+                  <c:v>23.28766533</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23.7964313</c:v>
+                  <c:v>22.99881707</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.50565926</c:v>
+                  <c:v>22.72351815</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23.22833673</c:v>
+                  <c:v>22.46069863</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.96341588</c:v>
+                  <c:v>22.20940512</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.70996153</c:v>
+                  <c:v>21.96878478</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.46713595</c:v>
+                  <c:v>21.73807202</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.23418602</c:v>
+                  <c:v>21.51657721</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22.01043249</c:v>
+                  <c:v>21.3036772</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.79526083</c:v>
+                  <c:v>21.09880722</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21.58811342</c:v>
+                  <c:v>20.90145399</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.38848294</c:v>
+                  <c:v>20.71114973</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21.19590659</c:v>
+                  <c:v>20.52746714</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.00996115</c:v>
+                  <c:v>20.35001489</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20.83025873</c:v>
+                  <c:v>20.17843382</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20.65644298</c:v>
+                  <c:v>20.01239361</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.48818588</c:v>
+                  <c:v>19.85158979</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20.32518487</c:v>
+                  <c:v>19.6957412</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.16716032</c:v>
+                  <c:v>19.54458774</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20.01385336</c:v>
+                  <c:v>19.39788834</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19.8650239</c:v>
+                  <c:v>19.2554192</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>19.72044891</c:v>
+                  <c:v>19.11697223</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>19.57992085</c:v>
+                  <c:v>18.98235362</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>19.44324636</c:v>
+                  <c:v>18.85138263</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>19.31024495</c:v>
+                  <c:v>18.72389041</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19.18074798</c:v>
+                  <c:v>18.59971908</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19.05459762</c:v>
+                  <c:v>18.47872076</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.93164598</c:v>
+                  <c:v>18.3607568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1113,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1124,6 +1134,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1294,168 +1309,168 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>59.38636101</c:v>
+                  <c:v>54.73442059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.40152103</c:v>
+                  <c:v>50.72977288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.73390771</c:v>
+                  <c:v>47.6694278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.87487745</c:v>
+                  <c:v>45.22261862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.55695707</c:v>
+                  <c:v>43.20258943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.62347553</c:v>
+                  <c:v>41.49443106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.97542796</c:v>
+                  <c:v>40.02284842</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.54660838</c:v>
+                  <c:v>38.73606644</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.29075577</c:v>
+                  <c:v>37.59709697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.17438908</c:v>
+                  <c:v>36.57868257</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.17256886</c:v>
+                  <c:v>35.66021289</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.26626621</c:v>
+                  <c:v>34.82576178</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.44066316</c:v>
+                  <c:v>34.06279225</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.68401708</c:v>
+                  <c:v>33.36127561</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.98687997</c:v>
+                  <c:v>32.71307639</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.34154811</c:v>
+                  <c:v>32.1115129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.74166563</c:v>
+                  <c:v>31.55103693</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.18193341</c:v>
+                  <c:v>31.02699603</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.65789166</c:v>
+                  <c:v>30.53545435</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.16575507</c:v>
+                  <c:v>30.0730556</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.70228607</c:v>
+                  <c:v>29.63691686</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.26469609</c:v>
+                  <c:v>29.22454541</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.85056799</c:v>
+                  <c:v>28.83377279</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.45779419</c:v>
+                  <c:v>28.46270208</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29.08452715</c:v>
+                  <c:v>28.1096653</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.7291391</c:v>
+                  <c:v>27.77318885</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.39018934</c:v>
+                  <c:v>27.451965</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.06639718</c:v>
+                  <c:v>27.14482848</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.75661965</c:v>
+                  <c:v>26.85073695</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.45983283</c:v>
+                  <c:v>26.56875469</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.17511625</c:v>
+                  <c:v>26.29803881</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.90163971</c:v>
+                  <c:v>26.03782769</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.63865212</c:v>
+                  <c:v>25.78743105</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.38547196</c:v>
+                  <c:v>25.54622154</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.14147915</c:v>
+                  <c:v>25.31362745</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.90610805</c:v>
+                  <c:v>25.0891265</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25.67884141</c:v>
+                  <c:v>24.87224042</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.45920511</c:v>
+                  <c:v>24.66253023</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.24676365</c:v>
+                  <c:v>24.45959219</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25.04111608</c:v>
+                  <c:v>24.26305418</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.84189261</c:v>
+                  <c:v>24.07257257</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.6487515</c:v>
+                  <c:v>23.88782945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24.46137632</c:v>
+                  <c:v>23.70853019</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24.27947365</c:v>
+                  <c:v>23.53440124</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>24.10277088</c:v>
+                  <c:v>23.36518828</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>23.93101438</c:v>
+                  <c:v>23.20065443</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.76396777</c:v>
+                  <c:v>23.04057877</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.6014105</c:v>
+                  <c:v>22.88475495</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>23.44313642</c:v>
+                  <c:v>22.73298999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>23.28895264</c:v>
+                  <c:v>22.58510316</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23.13867842</c:v>
+                  <c:v>22.44092497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="50604078"/>
-        <c:axId val="33042311"/>
+        <c:axId val="53902381"/>
+        <c:axId val="85486708"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50604078"/>
+        <c:axId val="53902381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -1514,7 +1529,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1545,13 +1560,1458 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33042311"/>
+        <c:crossAx val="85486708"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33042311"/>
+        <c:axId val="85486708"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="8b8b8b"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="bcbcbc"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Cj (fF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53902381"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart146.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>dnwpw - Cj (fF)
+/
+/area=1.000E-10/perim=4.000E-05/T=25/</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diode_typical Rev9 
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c40000"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="c40000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>53.98760092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.45592821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.12173428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.52261586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.41541552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.65770502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.15947996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.86055308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.71886888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.70399007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.79324442</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.96933292</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.21878469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.53092462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.89716361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.31049829</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.76515058</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.2563031</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.77990151</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.33250461</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.91116915</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.51336008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.13687999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.7798129</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.44047922</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.11739918</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.80926303</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.51490653</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.23329059</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.96348439</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.70465114</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.4560361</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.21695647</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.98679269</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.76498104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.55100732</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23.34440128</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.14473192</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.95160331</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.76465098</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.58353874</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.40795591</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.23761484</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.07224878</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.9116099</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.75546762</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.60360707</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.45582773</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.3119422</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.17177513</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21.0351622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diode_ff Rev9 
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000ff"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="0000ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>48.58884083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.51033539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.50956085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.17035428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.27387396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.69193452</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.34353196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.17449777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.14698199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.23359107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.41391998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.67239963</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.99690622</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.37783215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.80744725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.27944846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.78863552</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.33067279</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.90191135</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.49925415</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.12005224</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.76202407</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.42319199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.10183161</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.7964313</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.50565926</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.22833673</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.96341588</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.70996153</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.46713595</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.23418602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.01043249</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.79526083</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.58811342</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.38848294</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.19590659</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.00996115</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.83025873</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.65644298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.48818588</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.32518487</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.16716032</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.01385336</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.8650239</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.72044891</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.57992085</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.44324636</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.31024495</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.18074798</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.05459762</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.93164598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>diode_ss Rev9 
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="17602a"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="17602a"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-7.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>59.38636101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.40152103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.73390771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.87487745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.55695707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.62347553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.97542796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.54660838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.29075577</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.17438908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.17256886</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.26626621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.44066316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.68401708</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.98687997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.34154811</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.74166563</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.18193341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.65789166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.16575507</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.70228607</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.26469609</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.85056799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.45779419</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.08452715</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.7291391</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.39018934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.06639718</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.75661965</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.45983283</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.17511625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.90163971</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.63865212</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.38547196</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.14147915</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.90610805</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.67884141</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25.45920511</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.24676365</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.04111608</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.84189261</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.6487515</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.46137632</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.27947365</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24.10277088</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23.93101438</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23.76396777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.6014105</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.44313642</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23.28895264</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23.13867842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="56308676"/>
+        <c:axId val="8115407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="56308676"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="8b8b8b"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="bcbcbc"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Vj</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8115407"/>
+        <c:crosses val="min"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="8115407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65"/>
@@ -1610,7 +3070,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1641,7 +3101,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50604078"/>
+        <c:crossAx val="56308676"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1649,7 +3109,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1661,7 +3121,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1697,7 +3157,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart147.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1733,7 +3193,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1774,7 +3234,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1795,6 +3255,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2153,7 +3618,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2174,6 +3639,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2532,7 +4002,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2553,6 +4023,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2880,11 +4355,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="6228192"/>
-        <c:axId val="86503955"/>
+        <c:axId val="39860027"/>
+        <c:axId val="3310104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6228192"/>
+        <c:axId val="39860027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -2943,7 +4418,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -2974,13 +4449,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86503955"/>
+        <c:crossAx val="3310104"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86503955"/>
+        <c:axId val="3310104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -3039,7 +4514,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3070,7 +4545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6228192"/>
+        <c:crossAx val="39860027"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3078,7 +4553,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3090,7 +4565,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3126,7 +4601,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart148.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3162,7 +4637,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3203,7 +4678,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3224,6 +4699,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3582,7 +5062,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3603,6 +5083,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3961,7 +5446,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3982,6 +5467,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4309,11 +5799,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="8132914"/>
-        <c:axId val="66820858"/>
+        <c:axId val="34499356"/>
+        <c:axId val="94164373"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8132914"/>
+        <c:axId val="34499356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -4372,7 +5862,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -4403,13 +5893,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66820858"/>
+        <c:crossAx val="94164373"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66820858"/>
+        <c:axId val="94164373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -4468,7 +5958,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -4499,7 +5989,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8132914"/>
+        <c:crossAx val="34499356"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -4508,7 +5998,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -4520,7 +6010,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -4556,7 +6046,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4592,7 +6082,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -4633,7 +6123,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4654,6 +6144,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5012,7 +6507,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5033,6 +6528,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5391,7 +6891,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5412,6 +6912,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5739,11 +7244,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85792663"/>
-        <c:axId val="70532223"/>
+        <c:axId val="83724871"/>
+        <c:axId val="18269437"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85792663"/>
+        <c:axId val="83724871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -5802,7 +7307,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5833,13 +7338,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70532223"/>
+        <c:crossAx val="18269437"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70532223"/>
+        <c:axId val="18269437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -5898,7 +7403,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5929,7 +7434,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85792663"/>
+        <c:crossAx val="83724871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -5938,7 +7443,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -5950,7 +7455,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -5986,7 +7491,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart150.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6022,7 +7527,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -6063,7 +7568,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6084,6 +7589,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6442,7 +7952,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6463,6 +7973,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6821,7 +8336,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6842,6 +8357,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -7169,11 +8689,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75690680"/>
-        <c:axId val="41765294"/>
+        <c:axId val="25873969"/>
+        <c:axId val="76255780"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75690680"/>
+        <c:axId val="25873969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -7232,7 +8752,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -7263,13 +8783,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41765294"/>
+        <c:crossAx val="76255780"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41765294"/>
+        <c:axId val="76255780"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -7328,7 +8848,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -7359,7 +8879,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75690680"/>
+        <c:crossAx val="25873969"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -7368,7 +8888,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -7380,7 +8900,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -7416,7 +8936,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart151.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7452,7 +8972,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -7493,7 +9013,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7514,6 +9034,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -7872,7 +9397,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7893,6 +9418,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -8251,7 +9781,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -8272,6 +9802,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -8599,11 +10134,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="63007836"/>
-        <c:axId val="70098782"/>
+        <c:axId val="45680762"/>
+        <c:axId val="83363797"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63007836"/>
+        <c:axId val="45680762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -8662,7 +10197,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -8693,13 +10228,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70098782"/>
+        <c:crossAx val="83363797"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70098782"/>
+        <c:axId val="83363797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -8758,7 +10293,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -8789,7 +10324,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63007836"/>
+        <c:crossAx val="45680762"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -8798,7 +10333,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -8810,7 +10345,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -8846,7 +10381,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart152.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8882,7 +10417,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -8923,7 +10458,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -8944,6 +10479,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -9302,7 +10842,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -9323,6 +10863,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -9681,7 +11226,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -9702,6 +11247,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -10029,11 +11579,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="94662010"/>
-        <c:axId val="43407766"/>
+        <c:axId val="84144915"/>
+        <c:axId val="33565642"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94662010"/>
+        <c:axId val="84144915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -10092,7 +11642,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -10123,13 +11673,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43407766"/>
+        <c:crossAx val="33565642"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43407766"/>
+        <c:axId val="33565642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10188,7 +11738,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -10219,7 +11769,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94662010"/>
+        <c:crossAx val="84144915"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -10228,7 +11778,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -10240,1437 +11790,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>dnwpw - Cj (fF)
-/
-/area=1.000E-10/perim=4.000E-05/T=-40/</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="line"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>diode_typical Rev9 
-</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c40000"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="c40000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-4.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-4.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-4.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-5.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-5.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-5.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-5.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-6.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-6.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-6.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-6.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-7.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-7.4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-7.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-7.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-8.2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-8.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-8.6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-8.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-9.2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-9.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-9.6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-9.8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>49.75856417</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.11797534</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.33584345</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.11147147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.2750813</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37.72221006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.38440765</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35.21460586</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.17917906</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.25334779</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.41837535</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31.65978343</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30.96617477</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.32843237</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.73916035</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29.19228446</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28.68276084</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.20636002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.75950395</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>27.33914145</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26.94265169</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.56776856</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26.21252072</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25.87518371</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.55424119</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25.2483535</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24.95633181</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24.6771168</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24.40976087</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.15341335</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>23.90730801</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.67075244</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>23.44311914</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23.22383776</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>23.01238859</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22.80829682</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22.61112765</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22.42048203</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>22.2359929</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22.05732198</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21.88415689</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>21.71620859</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>21.55320926</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21.39491022</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21.24108025</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21.09150403</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>20.9459807</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>20.80432268</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>20.66635454</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>20.53191196</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>20.40084088</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>diode_ff Rev9 
-</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0000ff"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="0000ff"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-4.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-4.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-4.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-5.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-5.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-5.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-5.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-6.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-6.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-6.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-6.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-7.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-7.4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-7.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-7.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-8.2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-8.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-8.6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-8.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-9.2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-9.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-9.6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-9.8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>44.78270775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.50617781</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.00225911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.00032433</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.34757317</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.94998905</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.74596689</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.69314527</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.76126115</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29.92801301</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.17653782</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.49380509</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.86955729</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.29558913</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.76524432</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26.27305601</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.81448476</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25.38572402</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.98355356</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.60522731</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24.24838652</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.9109917</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.59126865</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.28766533</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22.99881707</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.72351815</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>22.46069863</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.20940512</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.96878478</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.73807202</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21.51657721</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.3036772</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.09880722</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20.90145399</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20.71114973</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20.52746714</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20.35001489</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20.17843382</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>20.01239361</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19.85158979</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19.6957412</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>19.54458774</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>19.39788834</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19.2554192</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>19.11697223</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>18.98235362</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18.85138263</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>18.72389041</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>18.59971908</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>18.47872076</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18.3607568</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>diode_ss Rev9 
-</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="17602a"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="17602a"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-4.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-4.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-4.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-5.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-5.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-5.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-5.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-6.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-6.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-6.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-6.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-7.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-7.4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-7.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-7.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-8.2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-8.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-8.6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-8.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-9.2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-9.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-9.6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-9.8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>54.73442059</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.72977288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.6694278</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.22261862</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43.20258943</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.49443106</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.02284842</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38.73606644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37.59709697</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36.57868257</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35.66021289</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34.82576178</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34.06279225</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.36127561</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.71307639</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.1115129</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31.55103693</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31.02699603</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30.53545435</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.0730556</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.63691686</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>29.22454541</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28.83377279</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.46270208</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.1096653</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27.77318885</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.451965</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.14482848</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26.85073695</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>26.56875469</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26.29803881</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>26.03782769</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>25.78743105</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>25.54622154</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25.31362745</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>25.0891265</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>24.87224042</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.66253023</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.45959219</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>24.26305418</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24.07257257</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23.88782945</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>23.70853019</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>23.53440124</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>23.36518828</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>23.20065443</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23.04057877</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>22.88475495</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>22.73298999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>22.58510316</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>22.44092497</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="3926927"/>
-        <c:axId val="16959927"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="3926927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2"/>
-          <c:min val="-12"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="8b8b8b"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="bcbcbc"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Vj</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="16959927"/>
-        <c:crosses val="min"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="16959927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="15"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="8b8b8b"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="bcbcbc"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Cj (fF)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="3926927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -11717,9 +11837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11727,8 +11847,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17334000" y="10159920"/>
-        <a:ext cx="8951760" cy="4095360"/>
+        <a:off x="17334000" y="10160280"/>
+        <a:ext cx="8951760" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11747,9 +11867,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11757,8 +11877,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="10159920"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="10160280"/>
+        <a:ext cx="8951400" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11777,9 +11897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11787,8 +11907,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17334000" y="14255640"/>
-        <a:ext cx="8951760" cy="4095360"/>
+        <a:off x="17334000" y="14256000"/>
+        <a:ext cx="8951760" cy="4094640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11807,9 +11927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11817,8 +11937,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="14255640"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="14256000"/>
+        <a:ext cx="8951400" cy="4094640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11837,9 +11957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11848,7 +11968,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17334000" y="18351360"/>
-        <a:ext cx="8951760" cy="4095360"/>
+        <a:ext cx="8951760" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11867,9 +11987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11877,8 +11997,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="18351360"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="18351360"/>
+        <a:ext cx="8951400" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11897,9 +12017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11927,9 +12047,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11937,8 +12057,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="22447080"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="22447080"/>
+        <a:ext cx="8951400" cy="4095360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11959,7 +12079,7 @@
   <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20043,8 +20163,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
